--- a/data/indie/잔나비 가사 crawling.xlsx
+++ b/data/indie/잔나비 가사 crawling.xlsx
@@ -28,12 +28,12 @@
     <t>뜨거운 여름밤은 가고 남은 건 볼품없지만</t>
   </si>
   <si>
+    <t>가을밤에 든 생각</t>
+  </si>
+  <si>
     <t>외딴섬 로맨틱</t>
   </si>
   <si>
-    <t>가을밤에 든 생각</t>
-  </si>
-  <si>
     <t>사랑하긴 했었나요 스쳐가는 인연이었나요 짧지않은 우리 함께했던 시간들이 자꾸 내 마음을 가둬두네</t>
   </si>
   <si>
@@ -58,30 +58,30 @@
     <t>고백 (원곡 델리스파이스)</t>
   </si>
   <si>
+    <t>그대 떠나는 날 비가 오는가</t>
+  </si>
+  <si>
     <t>나의 기쁨 나의 노래 (Intro)</t>
   </si>
   <si>
-    <t>그대 떠나는 날 비가 오는가</t>
-  </si>
-  <si>
     <t>걱정말아요 그대</t>
   </si>
   <si>
+    <t>밤의 공원</t>
+  </si>
+  <si>
     <t>투게더!</t>
   </si>
   <si>
-    <t>밤의 공원</t>
-  </si>
-  <si>
     <t>용맹한 발걸음이여</t>
   </si>
   <si>
+    <t>비틀 파워!</t>
+  </si>
+  <si>
     <t>환상의 나라</t>
   </si>
   <si>
-    <t>비틀 파워!</t>
-  </si>
-  <si>
     <t>로맨스의 왕</t>
   </si>
   <si>
@@ -103,24 +103,24 @@
     <t>전설</t>
   </si>
   <si>
+    <t>컴백홈</t>
+  </si>
+  <si>
     <t>블루버드, 스프레드 유어 윙스!</t>
   </si>
   <si>
-    <t>컴백홈</t>
-  </si>
-  <si>
     <t>굿바이 환상의 나라</t>
   </si>
   <si>
     <t>페어웰 투 암스! + 요람 송가</t>
   </si>
   <si>
+    <t>HONG KONG</t>
+  </si>
+  <si>
     <t>우리 애는요</t>
   </si>
   <si>
-    <t>HONG KONG</t>
-  </si>
-  <si>
     <t>로켓트</t>
   </si>
   <si>
@@ -178,12 +178,12 @@
     <t>늙은 개</t>
   </si>
   <si>
+    <t>Goodnight (Intro)</t>
+  </si>
+  <si>
     <t>달</t>
   </si>
   <si>
-    <t>Goodnight (Intro)</t>
-  </si>
-  <si>
     <t>JUNGLE</t>
   </si>
   <si>
@@ -232,12 +232,12 @@
     <t>그땐 난 어떤  마음이었길래  내 모든걸 주고도  웃을 수 있었나  그대는 또 어떤  마음이었길래  그 모든걸 갖고도  돌아서 버렸나  뜨거운 여름밤은 가고  남은 건 볼 품 없지만  또다시 찾아오는  누군갈 위해서  남겨두겠소  다짐은 세워올린 모래성은  심술이 또 터지면  무너지겠지만  뜨거운 여름밤은 가고  남은 건 볼 품 없지만  또다시 찾아오는  누군갈 위해서  남겨두겠소  그리운 그 마음 그대로  영원히 담아둘거야  언젠가 불어오는 바람에  남몰래 날려보겠소  눈이 부시던 그 순간들도  가슴아픈 그대의 거짓말도  새하얗게 바래지고  비틀거리던 내 발걸음도  그늘아래 드리운 내 눈빛도  아름답게 피어나길  눈이 부시던 그 순간들도  가슴아픈 그대의 거짓말도  새하얗게 바래지고  비틀거리던 내 발걸음도  그늘아래 드리운 내 눈빛도  아름답게 피어나길  눈이 부시던 그 순간들도 가슴아픈 그대의 거짓말도 새하얗게 바래지고 비틀거리던 내 발걸음도  그늘아래 드리운 내 눈빛도 아름답게 피어나길</t>
   </si>
   <si>
+    <t>머나먼 별빛 저 별에서도 노랠 부르는 사랑 살겠지 밤이면 오손도손 그리운 것들 모아서 노랠 지어 부르겠지  새까만 밤하늘을 수놓은 별빛마저 불어오는 바람 따라가고 보고픈 그대 생각 짙어져 가는 시월의 아름다운 이 밤에  부르다 보면 어제가 올까 그립던 날이 참 많았는데 저 멀리 반짝이다 아련히 멀어져 가는 너는 작은 별 같아  Farewell Farewell 멀어져 가는 Farewell ooh-  새까만 밤하늘을 수놓은 별빛마저 불어오는 바람 따라 가고 보고픈 그대 생각 짙어져 가는 시월의 아름다운 이 밤에  수많은 바람 불어온대도 날려 보내진 않을래 잊혀질까 두려워 곁을 맴도는 시월의 아름다운 이 밤을 기억해 주세요  Farewell Farewell</t>
+  </si>
+  <si>
     <t>어느 외딴섬 로맨틱을 우리 꿈꾸다 떠내려 왔나 때마침 노을빛이 아름답더니 캄캄한 밤이 오더군  이대로 이대로 더 길 잃어도 난 좋아 노를 저으면 그 소릴 난 들을래 쏟아지는 달빛에 오 살결을 그을리고 먼 옛날의 뱃사람을 닮아볼래 그 사랑을  나는 처음부터 다 알고 있었지 거긴 그 무엇도 없다는 것을 그래 넌 두 눈으로 꼭 봐야만 믿잖아 기꺼이 함께 가주지  이대로 이대로 더 길 잃어도 난 좋아 노를 저으면 그 소릴 난 들을래 쏟아지는 달빛에 오 살결을 그을리고 먼 옛날의 뱃사람을 닮아볼래  사랑은 바다 건너 피는 꽃이 아니래 조그만 쪽배에로 파도는 밑줄 긋고  먼 훗날 그 언젠가 돌아가자고 말하면 너는 웃다 고갤 끄덕여줘 참 아름다운 한때야 오 그 노래를 들려주렴 귓가에 피어날 사랑 노래를</t>
   </si>
   <si>
-    <t>머나먼 별빛 저 별에서도 노랠 부르는 사랑 살겠지 밤이면 오손도손 그리운 것들 모아서 노랠 지어 부르겠지  새까만 밤하늘을 수놓은 별빛마저 불어오는 바람 따라가고 보고픈 그대 생각 짙어져 가는 시월의 아름다운 이 밤에  부르다 보면 어제가 올까 그립던 날이 참 많았는데 저 멀리 반짝이다 아련히 멀어져 가는 너는 작은 별 같아  Farewell Farewell 멀어져 가는 Farewell ooh-  새까만 밤하늘을 수놓은 별빛마저 불어오는 바람 따라 가고 보고픈 그대 생각 짙어져 가는 시월의 아름다운 이 밤에  수많은 바람 불어온대도 날려 보내진 않을래 잊혀질까 두려워 곁을 맴도는 시월의 아름다운 이 밤을 기억해 주세요  Farewell Farewell</t>
-  </si>
-  <si>
     <t>사랑하긴 했었나요 스쳐가는 인연이었나요 짧지 않은 우리 함께했던 시간들이 자꾸 내 마음을 가둬두네 누가 내 가슴에다 불을 질렀나 누가 내 심장에다 못을 박았나 그대의 눈빛은 날 얼어붙게 해 그대여 다시 내게 마음을 주오 ooh ooh baby I need you 사랑하긴 했었나요 스쳐가는 인연이었나요 짧지 않은 우리 함께했던 시간들이 자꾸 내 마음을 가둬두네 love you love you love again love again with you 짧지 않은 우리 함께했던 시간들이 자꾸 내 마음을 가둬두네 ooh ooh baby I need you 당신은 도대체가 누구 시길레 당신께 내가 무슨 죄를 졌길레 쉽사리 내 맘을 준 죄밖엔 없는데 내 님아 다시 내게 믿음을 주오 ooh ooh baby I need you 사랑하긴 했었나요 스쳐가는 인연이었나요 짧지 않은 우리 함께했던 시간들이 자꾸 내 마음을 가둬두네 love you love you love again love again with you 짧지 않은 우리 함께했던 시간들이 자꾸 내 마음을 가둬두네 ooh ooh baby I need you 맘 같아선 널 내 맘에 가두고 널 내 품에 안고서 baby I love you 내가 어쩌다 이 지경에 이런 몹쓸 생각까지 하는지 찬물마시고 정신 차리자 어차피 넌 떠났으니까 사랑하긴 했었나요 스쳐가는 인연이었나요 짧지 않은 우리 함께했던 시간들이 자꾸 내 마음을 가둬두네 love you love you love again love again with you 짧지 않은 우리 함께했던 시간들이 자꾸 내 마음을 가둬두네</t>
   </si>
   <si>
@@ -262,30 +262,30 @@
     <t>중2때까지 늘 첫째 줄에 겨우 160이 됐을 무렵 쓸만한 녀석들은 모두 다 이미 첫사랑 진행 중  정말 듣고 싶었던 말이야 물론 2년 전 일이지만 기뻐야하는 게 당연한데 내 기분은 그게 아냐  하지만 미안해 네 넓은 가슴에 묻혀 다른 누구를 생각했었어 미안해 너의 손을 잡고 걸을 때에도 떠올렸었어 그 사람을   미안해 네 넓은 가슴에 묻혀 다른 누구를 생각했었어 미안해 너의 손을 잡고 걸을 때에도 떠올랐었어 그 사람이  라라라 라라 라라 라라라 라라 라라라 라라 라라라 라라라라 라라 라라 라라라 라라 라라라 라라 라라라-</t>
   </si>
   <si>
+    <t>그대 떠나는 날에  비가 오는가  하늘도 이별을 우는데  눈물이 흐르지 않네   슬픔은 오늘이야기 아니요  두고두고 긴 눈물이 내리리니  잡은 손이 젖어 가면  헤어지나  그대 떠나는 날에  비가 오는가  저물도록 긴 비가 오는가  그대 떠나는 날에  잎이 지는가 과거는 내게로 돌아서  향기를 뿌리고 있네  추억은 지난이야기 아니요  두고두고 그 모습이 새로우니  그때 부른 사랑노래  이별이었나  그대 떠나는 날에  잎이 지는가  처음부터 긴 이별이였네</t>
+  </si>
+  <si>
     <t>별 볼 일 없는 섭섭한 밤도 있어요 오늘도 그런 밤이었죠 창을 열고 세상 모든 슬픔들에게 손짓을 하던 밤 노래가 되고 시가 될 수 있을 만큼 그만큼만 내게 오길 뒤척이다 잠 못 들던 밤이 있는 한 닿을 수 있어요 나의 기쁨 나의 노래되어 날아가 거리를 나뒹구는 쉬운 마음 되어라 이 삐걱이는 잠자리가 나는 좋아요 제 맘을 알 수 있나요 버려지지 않고서는 가질 수 없는 마음이 있어요 나의 기쁨 나의 노래되어 날아가 거리를 헤집으며 텅빈 눈과 헛된 맘과  또다시 싸워 이길 나의 기쁨 나의 노래야 거리를 나뒹구는 쉬운 마음 되어라</t>
   </si>
   <si>
-    <t>그대 떠나는 날에  비가 오는가  하늘도 이별을 우는데  눈물이 흐르지 않네   슬픔은 오늘이야기 아니요  두고두고 긴 눈물이 내리리니  잡은 손이 젖어 가면  헤어지나  그대 떠나는 날에  비가 오는가  저물도록 긴 비가 오는가  그대 떠나는 날에  잎이 지는가 과거는 내게로 돌아서  향기를 뿌리고 있네  추억은 지난이야기 아니요  두고두고 그 모습이 새로우니  그때 부른 사랑노래  이별이었나  그대 떠나는 날에  잎이 지는가  처음부터 긴 이별이였네</t>
-  </si>
-  <si>
     <t>그대여 아무 걱정하지 말아요 우리 함께 노래합시다 그대 아픈 기억들 모두 그대여 그대 가슴에 깊이 묻어 버리고  지나간 것은 지나간 대로 그런 의미가 있죠 떠난 이에게 노래하세요 후회 없이 사랑했노라 말해요  그대는 너무 힘든 일이 많았죠 새로움을 잃어버렸죠 그대 슬픈 얘기들 모두 그대여 그대 탓으로 훌훌 털어버리고  지나간 것은 지나간 대로 그런 의미가 있죠 우리 다 함께 노래합시다 후회 없이 꿈을 꾸었다 말해요  지나간 것은 지나간 대로 그런 의미가 있죠 우리 다 함께 노래합시다 후회 없이 꿈을 꾸었다 말해요  지나간 것은 지나간 대로 그런 의미가 있죠 우리 다 함께 노래합시다 후회 없이 꿈을 꾸었다 말해요  새로운 꿈을 꾸겠다 말해요 새로운 꿈을 꾸겠다 말해요 새로운 꿈을 꾸겠다 말해요</t>
   </si>
   <si>
+    <t>비가 왔었나 봐 이젠 느낄 수 있어요 신비로워 처음 마주한 사랑은  푸르른 그 빛을 휘둘러 여름으로! 그 풀빛 아래 사랑은 완벽하리 아름다운 밤이에요  밤의 공원으로 오세요 그 어린 광기를 달래러요 차가운 달빛이 사랑하긴 좋아요  오 그때 내 마음은 아침이 오면은 초라할 작은 불빛 또 내일은 해가 뜬대요 서둘러 떠나요 이 밤에 취해 (Dream until tomorrow)  서둘러 도망친 이곳은 밤의 공원 그대와 나의 비밀을 눈감아줄 너그러운 밤이 사는 곳  가끔 저 달이 무서워요 곧 나가떨어질 것 같아 어떡해 겉도는 이 사랑도 영원할 순 없다고  오 그때 내 마음은 아침이 오면은 초라할 작은 불빛 또 내일은 해가 뜬대요 서둘러 떠나요 이 밤에 취해  난 사랑을 알아요 어둠 속에 피는 격정을 아는 불빛 또 내일은 해가 뜬대도 영원할 거예요 아름다워요 (Dream until tomorrow)  초록을 거머쥔 우리는 여름으로!  푸르던 그 빛을 휘둘러 여름으로!  함부로 겨눠보던 미래와 웃음 짓던 그대와 나 보기 좋게 빗나간 우리들의 아침도  영원에 걸었던 약속은 껴안는 법도 모르는 채 뒤척이다 마주할 창백한 아침이여</t>
+  </si>
+  <si>
     <t>몇 달은 품던 그 말로 멋진 옷을 지어 입곤 텅 빈 방에 누워 또 잠이나 잤지 이름도 모르는 꽃에 내 멋대로 붙여본 꽃말 손대지 말아요 그저 눈으로만 바라봐요 나는 너의 음악이고 그런 마음 한 줄이야 때가 되면 네 마음에 시퍼렇게 남을거야 오 기다림은 저 별의 빛 우주를 건너는 달음 너에게 하고픈 말은 하루에 딱 반 씩 접어 몇 밤 더 지새우면 달까지도 간대 천 번을 접어야지만 학이 되는 슬픈 사연 천둥 같은 한숨 타면 너의 곁에 닿으려나 나는 너의 음악이고 그런 마음 한 줄이야 때가 되면 네 귓 볼에 찬란히 매달릴 거야 오 기다림은 저 별의 빛 우주를 건너는 달음 오 기다림은 저 별의 빛 오 입맞춤은 아득한 꿈 머나먼 우주를 건너 너는 나의 메아리고 그런 마음 한 줌이야 때가 되면 내 마음에 축제처럼 열릴 거야  오 기다림은 저 별의 빛 우주를 건너온 그 한 달음</t>
   </si>
   <si>
-    <t>비가 왔었나 봐 이젠 느낄 수 있어요 신비로워 처음 마주한 사랑은  푸르른 그 빛을 휘둘러 여름으로! 그 풀빛 아래 사랑은 완벽하리 아름다운 밤이에요  밤의 공원으로 오세요 그 어린 광기를 달래러요 차가운 달빛이 사랑하긴 좋아요  오 그때 내 마음은 아침이 오면은 초라할 작은 불빛 또 내일은 해가 뜬대요 서둘러 떠나요 이 밤에 취해 (Dream until tomorrow)  서둘러 도망친 이곳은 밤의 공원 그대와 나의 비밀을 눈감아줄 너그러운 밤이 사는 곳  가끔 저 달이 무서워요 곧 나가떨어질 것 같아 어떡해 겉도는 이 사랑도 영원할 순 없다고  오 그때 내 마음은 아침이 오면은 초라할 작은 불빛 또 내일은 해가 뜬대요 서둘러 떠나요 이 밤에 취해  난 사랑을 알아요 어둠 속에 피는 격정을 아는 불빛 또 내일은 해가 뜬대도 영원할 거예요 아름다워요 (Dream until tomorrow)  초록을 거머쥔 우리는 여름으로!  푸르던 그 빛을 휘둘러 여름으로!  함부로 겨눠보던 미래와 웃음 짓던 그대와 나 보기 좋게 빗나간 우리들의 아침도  영원에 걸었던 약속은 껴안는 법도 모르는 채 뒤척이다 마주할 창백한 아침이여</t>
-  </si>
-  <si>
     <t>새로운 아침이 반짝이는데 오늘은 누가 먼저 일어났나 말하지 않아도 알 수 있는 음- 성실한 사랑이었네  사랑은 구름 넘어 환상은 아니지만 멍청한 믿음은 좀 필요로 해. 어서 여기 밤사이 깨어진 꿈의 조각을 주워가렴.  조금만 더 가면 보금자리래 그곳에 닿으면 한숨 돌릴까 입 맞춰 부르면 더 달콤할걸? 우- 달콤한 사랑 노래를  그토록 찾아 헤맨 무지개 닿을 수 없을 거야 우리 알고 있었대도 말하지 않았음은  우리는 끝까지 발 굴러야 해 두 눈은 또박또박 보아야 해 꼭 잡은 두 손이 더 자유로운 용맹한 발걸음이여  머나먼- 머나먼- 그곳은 어디에  발 굴러 뱅뱅 굴러 가야만 해 두 눈은 또박또박 보아야 해 꼭 잡은 두 손이 더 자유로운 용맹한 발걸음이여  달콤한 사랑 노래를 입맞춰 부르면 더 달콤할까</t>
   </si>
   <si>
+    <t>디어 미스터 존, 미스터 폴 잘들 지내셨는지요 위 아 인 더 인더스트리! 나 그대 뜻에 다다랐어요 암 비틀 보이  메피스토, 와이 유 패스 미 바이? 제겐 묻지 않더군요 노 비즈니스 라이크 쇼 비즈니스! 그래서 내 식대로 해냈어요 암 비틀 보이  뭐가 뭔지 모르겠을 땐 텔레비전 셀레브리티 더 프라이스 이즈 저스트 원 핑거 나는 거뜬해요 오 비틀 보이  “레이디스 앤 젠틀맨! 플리즈 웰컴! 더 비틀 보이!”  디어 미스터 조지! 미스터 링고! 사랑하는 나의 친구 돈 비 시리어스 마이 올드 프렌드. 고결한 우리의 음악으로 Entertain'ment' us!  뭐가 뭔지 모르겠을 땐 텔레비전 셀레브리티 더 프라이스 이즈 저스트 원 핑거 나는 거뜬해요 오 비틀 보이  To the topper most of the popper most! 예스 아임 리빙 얼론! 오 비틀 보이!</t>
+  </si>
+  <si>
     <t>저기 저 굽은 어깨너머 저물어만 가는 꿈 철없던 밤과 낮을 기억하는가 밟히우면 또 꿈틀대는 촌스러운 이 생명들과 고요한 우리의 밤  고요한 우리의 밤</t>
   </si>
   <si>
-    <t>디어 미스터 존, 미스터 폴 잘들 지내셨는지요 위 아 인 더 인더스트리! 나 그대 뜻에 다다랐어요 암 비틀 보이  메피스토, 와이 유 패스 미 바이? 제겐 묻지 않더군요 노 비즈니스 라이크 쇼 비즈니스! 그래서 내 식대로 해냈어요 암 비틀 보이  뭐가 뭔지 모르겠을 땐 텔레비전 셀레브리티 더 프라이스 이즈 저스트 원 핑거 나는 거뜬해요 오 비틀 보이  “레이디스 앤 젠틀맨! 플리즈 웰컴! 더 비틀 보이!”  디어 미스터 조지! 미스터 링고! 사랑하는 나의 친구 돈 비 시리어스 마이 올드 프렌드. 고결한 우리의 음악으로 Entertain'ment' us!  뭐가 뭔지 모르겠을 땐 텔레비전 셀레브리티 더 프라이스 이즈 저스트 원 핑거 나는 거뜬해요 오 비틀 보이  To the topper most of the popper most! 예스 아임 리빙 얼론! 오 비틀 보이!</t>
-  </si>
-  <si>
     <t>헐리웃 러버! 이 연애는 이해할 수가 없어 꽉 막힌 내게 그런 감각을 바래?  헐리웃 러버! 그 말투도 조금 작위적인걸 어설픈 도취 취한 거야 분명해  나의 이름은 레이첼 오 라이언 유아 마이 스윗 헐트 사랑해요 뜨겁게 당신만을  때마침 비가 내리고 낯익은 음악이 흐르고 다들 춤을 추는데 마주보며 멋쩍게 웃던 우리는  사실은 그래 좀 미안해 너를 사랑하지만 늘 피곤한 내겐 그런 불꽃은 없어  뚜뚜뚜뚜 뚜뚜루- 뚜뚜뚜뚜 뚜뚜루- 뚜루두루 뚜루두루 뚜루뚜-  나의 이름은 리차드 오 줄리아 유아 마이 스윗헐트 사랑해요 뜨겁게 당신만을  때마침 비가 내리고 낯익은 음악이 흐르고 다들 춤을 추는데 마주보며 멋쩍게 웃던 우리는  우 사랑의 정열이여 한번쯤 타올라주어 이 내 머뭇거림 위로- 멈추지 않을 작은 하나 그 춤을 그 품에 잠겨 영원히 발 맞추게  뚜뚜뚜뚜 뚜뚜루- 뚜뚜뚜뚜 뚜뚜루- 뚜루두루 뚜루두루 뚜루뚜- 뚜두두두</t>
   </si>
   <si>
@@ -307,24 +307,24 @@
     <t>전설 그 푸르른 눈동자에 날 태워줘 내 방황을 멈추어 줘 하루빨리 날 데려가 줘 번쩍 내 최후의 발악이야 불꽃놀이, 그 마지막 순간이야 남김없이 불태워야 해 그댄 나를 사랑이라 불러 주오 그리되어 드리리 오늘 밤 나 그대의 품에 안겨서 입을 맞추고 rock n' roll save my life. 함락 남겨진 마음끼리 피 흘리고, 또 할퀴고 깨물어서 더는 더는 찾을 이 없대도 그댄 나를 사랑이라 불러 주오 그리되어 드리리 오늘 밤 나 그대의 품에 안겨서 입을 맞추고 rock n' roll save my life. Save my life 날 그대의 품에 안아줘 입을 맞춰줘 품에 안겨서 입을 맞추고 rock n' roll  wave your flag</t>
   </si>
   <si>
+    <t>우린 돌아갈 거야 Come Back Home Come Back Home 이젠 늦지 않으리 Come Back Home Come Back Home  집으로 돌아갈래 이곳은 날 원치 않아 오늘 밤 하룻 밤만이라도 보내주오  어두운 밤 날 감추면 Oh My Love Please Shine a light on me 밝혀주오  그림 같은 저 달빛 그 노랠 들려주오 그대를 찾아 돌아온 내게 멈춘 네 심장위로 리듬을 새겨줘  Come Back Home  우린 돌아갈 거야 Come Back Home Come Back Home 이젠 늦지 않으리 Come Back Home Come Back Home  내 사랑 그대 외로이 지새운 밤들을 기억하오 오늘 밤 그대 품 안에 날 안겨 드리리  우린 돌아갈 거야 Come Back Home Come Back Home 이젠 늦지 않으리 Come Back Home Come Back Home  그림 같은 저 달빛 그 노랠 들려주오 그대를 찾아 돌아온 내게</t>
+  </si>
+  <si>
     <t>반짝이던가 새들의 노랫 소리 여기 깨어진 꿈의 조각을 주워 가렴  짙은 어둠의 그 바다가 날 삼키면 나는 또 울어볼래 I swear I swear  아침 햇살이 그 노래가 날 뱉으면 나는 또 날아볼래 I swear I swear  Blue bird! Blue bird! Come, get your life! Believe you're be alright  Blue bird! Blue bird! Come, get your life! Believe you're be alright</t>
   </si>
   <si>
-    <t>우린 돌아갈 거야 Come Back Home Come Back Home 이젠 늦지 않으리 Come Back Home Come Back Home  집으로 돌아갈래 이곳은 날 원치 않아 오늘 밤 하룻 밤만이라도 보내주오  어두운 밤 날 감추면 Oh My Love Please Shine a light on me 밝혀주오  그림 같은 저 달빛 그 노랠 들려주오 그대를 찾아 돌아온 내게 멈춘 네 심장위로 리듬을 새겨줘  Come Back Home  우린 돌아갈 거야 Come Back Home Come Back Home 이젠 늦지 않으리 Come Back Home Come Back Home  내 사랑 그대 외로이 지새운 밤들을 기억하오 오늘 밤 그대 품 안에 날 안겨 드리리  우린 돌아갈 거야 Come Back Home Come Back Home 이젠 늦지 않으리 Come Back Home Come Back Home  그림 같은 저 달빛 그 노랠 들려주오 그대를 찾아 돌아온 내게</t>
-  </si>
-  <si>
     <t>이룰 수 없는 꿈을 꿨다면 언덕 위의 바보를 자처하며, 어떤 이에게서 주워들은 승전가를 굳게 믿어왔다면 끝끝내 달콤하리라고.  그토록 부르던 별과 꿈, 그런 것들.. 별은 과녁이었고 꿈은 그저 꿈이라 부르기에 알맞은 거였다고 말해줄래.   환상의 나라를 사랑하고자 했던 사내에게 현실의 아름다움은 독이어야만 했지 꼭 그래야만 했어 그 촌스러운 은유를 벗겨내는 고통은 그래, 딱 세상이 너그러웠던 만큼 아팠어.  아니 사실 너무 아플 것 같아서 그대로 뒀어.  이제 내가 믿어왔던 그 모든 것들, 난 환상이었다 부를 수 있어. 그러면서도 또 믿어볼래. 그것들을 환상이라고 그렇게 부르기까지의 그 시간들을.  그리고 또 그리고 또…   그래도 오늘 밤은 집에 가야겠어.</t>
   </si>
   <si>
     <t>붉게 물든 하늘 아래 저물어가는 또 하루  싸워 줄 이 하나 없이 낙오된 요새엔  근육이여 주름이여 목소리여 눈동자여 허깨비여 잘 있거라!  지는 해가 서러워 발 구르나 별 수없이 다정해지리라 신음하는 친구여 자신 있게 고갤 떨궈라  우울의 서막 젊은 관짝 대행진 교전 의사 없음  피를 빠는 더 젊은 태양 등에 지고서  못다 이룬 나의 꿈을 전가하노라 굳세어라  안돼요 그런 짐은 지우지 말아요 난 아니에요 해로운 승리의 찬가를 내 귀에 옮기지 마요 주워들은 그 노래를  별 수없이 착한 사람들의 별 수없이 행복한 날들로 길에서 주운 평화엔 오 딱한 무용담도 없어라  우울의 서막 젊은 관짝 대행진 교전 의사 없음  피를 빠는 더 젊은 태양- 등에 지고서  삐삐삐삐 삐삐삐 삐삐 삐삐삐삐 삐삡  고귀하여라 젊은 백기  이리로 오라- 오 잠들어 오라-   고단한 몸 요람에 안겨 팔베개를 꼬고 누웠다  아픈 만큼 담담해지길 잠에 들던 나는 잊었다  달콤한 외면은 달콤하긴 했다 끝내 날 죽이지 못했던 그것은 진짜로 아팠다</t>
   </si>
   <si>
+    <t>아쉬울게 오 난 너무도 많은데 쉬운 일 하나 없던 내 인생길. 아버지는 주무시려나 오 뭐가 두려워 그리 도망을 치느냐  뭔 말 인 지 모 르 겠 어요 난 뭔 말 인 지 모 르 겠 어요 난  돌아보니 뭔가 남은 건 있는데 다 버리고 오 난 멀리도 왔구나 아버지는 주무시려나 오 뭐가 부족해 그리 불평을 하느냐  뭔 말 인 지 모 르 겠 어요 난 뭔 말 인 지 모 르 겠 어요 난  잔자자자잔 자잔  자자자자자자자자잔  잔자자자잔 자잔  자자자자자자자자잔  뭔 말 인 지 모 르 겠 어요 난 뭔 말 인 지 모 르 겠 어요 난</t>
+  </si>
+  <si>
     <t>어린애야 아직도 난 나사 빠진 애처럼 구는 게 재밌어 누가 뭐라 하면 그게 더 좋아 어버버버 더듬더듬 내 말도 천재 같고 멋이 있어 고치지 않을 거야 조금 답답해도 참아야 해 우리 애는요 관심이 필요한 아이예요 덜떨어져 보여도 알고 보면 멋진 애예요 불안불안 껌뻑껌뻑 내 눈도 불쌍해 보이고 좋아 걱정이 많아 그래 나를 사랑으로 보듬어줘 우리 애는요 사랑이 필요한 아이예요 덜떨어져 보여도 알고 보면 멋진 애예요. 멍청한 장난처럼 짓궂은 농담처럼 내 친구가 되어줘  늘 나를 향해 서 줘 곁에 있어줘 비겁한 변명처럼 어설픈 핑계처럼 나의 편이 되어줘 늘 나의 뒤에 서 줘 곁에 있어줘 내 친구가 되어줘 늘 나를 향해 서 줘 내 곁에 있어줘</t>
   </si>
   <si>
-    <t>아쉬울게 오 난 너무도 많은데 쉬운 일 하나 없던 내 인생길. 아버지는 주무시려나 오 뭐가 두려워 그리 도망을 치느냐  뭔 말 인 지 모 르 겠 어요 난 뭔 말 인 지 모 르 겠 어요 난  돌아보니 뭔가 남은 건 있는데 다 버리고 오 난 멀리도 왔구나 아버지는 주무시려나 오 뭐가 부족해 그리 불평을 하느냐  뭔 말 인 지 모 르 겠 어요 난 뭔 말 인 지 모 르 겠 어요 난  잔자자자잔 자잔  자자자자자자자자잔  잔자자자잔 자잔  자자자자자자자자잔  뭔 말 인 지 모 르 겠 어요 난 뭔 말 인 지 모 르 겠 어요 난</t>
-  </si>
-  <si>
     <t>Give me some love 어색한 우리 사이 하나의 해답 그 love,love   말로 하긴 낯 뜨거운 여전히 이른 듯한 우리의 춤사위 love love love  라리라라 라라라라 라리라라 라라라  hey sexy lady 저 빛나는 달 위에 oh sexy lady 우리 둘은 토끼 한 쌍 꿀발린 달 마냥 끈적하게 이 밤을 또 밝혀주리라  그댄 나의 universe 힘찬 나의 로켓트! 저 멀리 날 보내줘 love love love love love  Give me some love 어색한 우리 사이 하나의 해답 그 love,love   말로 하긴 낯 뜨거운 여전히 이른 듯한 우리의 춤사위 love love love  라리라라 라라라라 라리라라 라라라  hey sexy lady 그대 그 뒷모습이 oh sexy lady 난 너무도 눈이 부셔 무릎을 꿇고서 경건하게   두 손은 그 허리춤으로  그댄 나의 universe 힘찬 나의 로켓트! 저 멀리 날 보내줘 love love love love love  그댄 나의 universe   힘찬 내 로켓트      3! 2! 1! go!   fly me to the moon~  Give me some love 저 달을 밝히려면 필요한 전기 그 love love 너와 내가 알콩 달콩 돌리는 그럴싸한 자가 발전기 love love love   라리라라 라라라라 라리라라 라라라     라리라라 라라라라 라리라라 라라라 love.</t>
   </si>
   <si>
@@ -382,10 +382,10 @@
     <t>늙은 개야 늙은 개야 뛰어볼래 소파 위로 일곱 살 작은 나를 무찌르던 이를 보여줘  국에 밥 말아 줄까 치킨을 시켜 먹을까 엄마께 혼난 대도 사람 밥이 맛있잖니  기억하니 친구야 우리 쫓던 무지개를 나는 다 잊었는데 넌 아직 쫓고 있구나  국에 밥 말아 줄까 치킨을 시켜 먹을까 엄마께 혼난 대도 사람 밥이 맛있잖니  가을 겨울 지나고 다음 봄이 올 때쯤엔 무럭무럭 자라서 귀여운 꽃이 되어라  국에 밥 말아 줄까 치킨을 시켜 먹을까 엄마께 혼난 대도 사람 밥이 맛있잖니  어떤 꽃을 피울 거니</t>
   </si>
   <si>
+    <t>사람들은 외로워 마찬가지야 비참하게 생각마  애써 웃어도 달라질 일은 없는 걸  어두운 밤  날아와서 날 잠들게 해줘</t>
+  </si>
+  <si>
     <t>복잡한 내 마음 알릴 길이 없어 내 표현력이 좀 부족한지 아무말도 떠오르지 않아  하얗게 취한 밤 날 모르던 달빛도 내 비틀거림에 안쓰러운지 날 환하게 비춰주네  난 그 달빛의 동정 섞인  저 환한 빛이 싫어져 조급해진 내 마음을  못 쫓아간 나의 취한 발걸음  하얗게 취한 밤 날 모르던 달빛도 내 비틀거림에 안쓰러운지 날 환하게 비춰주네  난 그 달빛의 동정 섞인  저 환한 빛이 싫어져 조급해진 내 마음을  못 쫓아간 나의 취한 발걸음 결국엔 나자빠진 나의 몸</t>
-  </si>
-  <si>
-    <t>사람들은 외로워 마찬가지야 비참하게 생각마  애써 웃어도 달라질 일은 없는 걸  어두운 밤  날아와서 날 잠들게 해줘</t>
   </si>
   <si>
     <t>여기는 정글 터지는 선샤인 주머니 가득 makes me feel good  여기는 정글 터지는 선샤인 나무를 타면 makes me feel good  I know, you know 보기완 달리 난 도시사람 아니에요 정글,정글 그 곳이 내 고향이에요.  악어떼가나온다 뱀이나타났다 get away! get away! 정!글!  여기는 정글 터지는 선샤인 주머니 가득 makes me feel good  여기는 정글 터지는 선샤인 나무를 타면 makes me feel good  I know, you know 보기완 달리 정글숲은 위험해요 몇날, 몇일 비가 내릴 때도 있구요  악어떼가나온다 뱀이나타났다 get away! get away! 정!글! 정!글!  여기는 정글 터지는 선샤인 주머니 가득 makes me feel good  여기는 정글 터지는 선샤인 나무를 타면 makes me feel good</t>
